--- a/Perhitungan.xlsx
+++ b/Perhitungan.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILE ICA\SEMESTER 8\PEMROGRAMAN SIMULASI\LinearRegression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C4EEC2D6-9004-4873-9EA8-B4E6419A473A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489C752F-3D3C-4B50-8F30-D225AF739E76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>No</t>
   </si>
@@ -128,12 +128,54 @@
   </si>
   <si>
     <t>hasil</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>Model Regresi :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y = </t>
+  </si>
+  <si>
+    <t>Nilai r :</t>
+  </si>
+  <si>
+    <t>Interpretasi nilai r +/- :</t>
+  </si>
+  <si>
+    <t>Kekuatan hubungan :</t>
+  </si>
+  <si>
+    <t>Koefisien Determinasi</t>
+  </si>
+  <si>
+    <t>Interpretasinya</t>
+  </si>
+  <si>
+    <t>KD</t>
+  </si>
+  <si>
+    <t>Sisa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -283,7 +325,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,8 +523,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -651,6 +699,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -696,7 +841,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -734,20 +879,10 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -772,19 +907,65 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1139,14 +1320,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
+      <selection pane="bottomRight" activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,7 +1336,7 @@
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
@@ -1166,29 +1347,29 @@
     <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1214,11 +1395,11 @@
         <f>B2*C2</f>
         <v>462</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="29">
         <f>COUNT(A2:A891)</f>
         <v>40</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="7" t="s">
@@ -1239,7 +1420,7 @@
       <c r="P2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="23" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1265,8 +1446,8 @@
         <f t="shared" ref="F3:F34" si="1">B3*C3</f>
         <v>598</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="J3" s="17"/>
+      <c r="G3" s="29"/>
+      <c r="J3" s="35"/>
       <c r="K3" s="6">
         <f>(C42*D42)</f>
         <v>20892648</v>
@@ -1291,7 +1472,7 @@
         <f>M3-N3</f>
         <v>11344</v>
       </c>
-      <c r="Q3" s="27">
+      <c r="Q3" s="23">
         <f>ROUND(O3/P3,5)</f>
         <v>23.710159999999998</v>
       </c>
@@ -1318,8 +1499,8 @@
         <f t="shared" si="1"/>
         <v>540</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="J4" s="4"/>
+      <c r="G4" s="29"/>
+      <c r="J4" s="16"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -1349,8 +1530,8 @@
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="29"/>
+      <c r="J5" s="34" t="s">
         <v>4</v>
       </c>
       <c r="K5" s="7" t="s">
@@ -1371,7 +1552,7 @@
       <c r="P5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="Q5" s="23" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1397,8 +1578,8 @@
         <f t="shared" si="1"/>
         <v>520</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="J6" s="17"/>
+      <c r="G6" s="29"/>
+      <c r="J6" s="35"/>
       <c r="K6" s="5">
         <f>G2*F42</f>
         <v>892800</v>
@@ -1423,7 +1604,7 @@
         <f>M6-N6</f>
         <v>-816816</v>
       </c>
-      <c r="Q6" s="27">
+      <c r="Q6" s="23">
         <f>ROUND(O6/P6,5)</f>
         <v>-2.5999999999999998E-4</v>
       </c>
@@ -1450,7 +1631,7 @@
         <f t="shared" si="1"/>
         <v>399</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="29"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -1481,7 +1662,7 @@
         <f t="shared" si="1"/>
         <v>650</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="29"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -1512,8 +1693,8 @@
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="J9" s="19" t="s">
+      <c r="G9" s="29"/>
+      <c r="J9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="4"/>
@@ -1545,28 +1726,28 @@
         <f t="shared" si="1"/>
         <v>728</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="J10" s="32" t="s">
+      <c r="G10" s="29"/>
+      <c r="J10" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="36">
         <f>Q3</f>
         <v>23.710159999999998</v>
       </c>
-      <c r="L10" s="33" t="str">
+      <c r="L10" s="43" t="str">
         <f>IF(Q6&lt;0,"-","+")</f>
         <v>-</v>
       </c>
-      <c r="M10" s="34">
+      <c r="M10" s="44">
         <f>ABS(Q6)</f>
         <v>2.5999999999999998E-4</v>
       </c>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
       <c r="T10" s="11"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -1591,17 +1772,17 @@
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="29"/>
       <c r="J11" s="10"/>
       <c r="K11" s="12"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
       <c r="T11" s="11"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -1626,7 +1807,7 @@
         <f t="shared" si="1"/>
         <v>624</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="29"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -1661,7 +1842,7 @@
         <f t="shared" si="1"/>
         <v>528</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="29"/>
       <c r="J13" s="4" t="s">
         <v>20</v>
       </c>
@@ -1695,8 +1876,8 @@
         <f t="shared" si="1"/>
         <v>702</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="J14" s="16" t="s">
+      <c r="G14" s="29"/>
+      <c r="J14" s="34" t="s">
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
@@ -1732,7 +1913,7 @@
       <c r="U14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="V14" s="27" t="s">
+      <c r="V14" s="23" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1758,8 +1939,8 @@
         <f t="shared" si="1"/>
         <v>546</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="J15" s="17"/>
+      <c r="G15" s="29"/>
+      <c r="J15" s="35"/>
       <c r="K15" s="6">
         <f>G2*F42</f>
         <v>892800</v>
@@ -1804,7 +1985,7 @@
         <f>SQRT(T15)</f>
         <v>9408.9625357953246</v>
       </c>
-      <c r="V15" s="35">
+      <c r="V15" s="27">
         <f>ROUND(Q15/U15,5)</f>
         <v>2.2960000000000001E-2</v>
       </c>
@@ -1831,9 +2012,14 @@
         <f t="shared" si="1"/>
         <v>504</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="G16" s="29"/>
+      <c r="J16" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="17">
+        <f>ROUND(V15^2*100,5)</f>
+        <v>5.2720000000000003E-2</v>
+      </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -1863,9 +2049,14 @@
         <f t="shared" si="1"/>
         <v>594</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="G17" s="29"/>
+      <c r="J17" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="17">
+        <f>100-K16</f>
+        <v>99.947280000000006</v>
+      </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -1892,8 +2083,7 @@
         <f t="shared" si="1"/>
         <v>483</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="J18" s="4"/>
+      <c r="G18" s="29"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
@@ -1921,13 +2111,28 @@
         <f t="shared" si="1"/>
         <v>462</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
+      <c r="G19" s="29"/>
+      <c r="J19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="47">
+        <f>K10</f>
+        <v>23.710159999999998</v>
+      </c>
+      <c r="N19" s="47" t="str">
+        <f>L10</f>
+        <v>-</v>
+      </c>
+      <c r="O19" s="48">
+        <f>M10</f>
+        <v>2.5999999999999998E-4</v>
+      </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
     </row>
@@ -1953,14 +2158,21 @@
         <f t="shared" si="1"/>
         <v>598</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
+      <c r="G20" s="29"/>
+      <c r="J20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="45">
+        <f>V15</f>
+        <v>2.2960000000000001E-2</v>
+      </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
-      <c r="Q20" s="29"/>
+      <c r="Q20" s="25"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1984,14 +2196,22 @@
         <f t="shared" si="1"/>
         <v>580</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="Q21" s="10"/>
+      <c r="G21" s="29"/>
+      <c r="J21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="31" t="str">
+        <f>"Nilai korelasi tersebut adalah "&amp;IF(L20&lt;0,"negatif","positif")&amp;" yang mengartikan bahwa perbandingannya adalah "&amp;IF(L20&lt;0,"terbalik","searah")&amp;""</f>
+        <v>Nilai korelasi tersebut adalah positif yang mengartikan bahwa perbandingannya adalah searah</v>
+      </c>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -2015,15 +2235,22 @@
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="12"/>
+      <c r="G22" s="29"/>
+      <c r="J22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="31" t="str">
+        <f>"Kekuatan nilai r adalah "&amp;IF(OR(L20&gt;=0,L20&lt;0.2),"Sangat Lemah",IF(OR(L20&gt;=0.2,L20&lt;0.4),"Lemah",IF(OR(L20&gt;=0.4,L20&lt;0.6),"Sedang",IF(OR(L20&gt;=0.6,L20&lt;0.8),"Kuat",IF(OR(L20&gt;=0.8,L20&lt;1),"Sangat Kuat")&amp;""))))</f>
+        <v>Kekuatan nilai r adalah Sangat Lemah</v>
+      </c>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -2047,14 +2274,21 @@
         <f t="shared" si="1"/>
         <v>520</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
+      <c r="G23" s="29"/>
+      <c r="J23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" s="49" t="str">
+        <f>""&amp;ROUND(L20^2*100,5)&amp;" %"</f>
+        <v>0,05272 %</v>
+      </c>
+      <c r="M23" s="30"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
-      <c r="P23" s="30"/>
+      <c r="P23" s="26"/>
       <c r="Q23" s="12"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -2079,14 +2313,20 @@
         <f t="shared" si="1"/>
         <v>399</v>
       </c>
-      <c r="G24" s="15"/>
+      <c r="G24" s="29"/>
       <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="Q24" s="29"/>
+      <c r="K24" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="37" t="str">
+        <f>"Besar kontribusi variabel "&amp;B1&amp;" terhadap "&amp;C1&amp;" adalah "&amp;L23&amp;" % "</f>
+        <v xml:space="preserve">Besar kontribusi variabel X (Kecepatan Angin) terhadap Y (Suhu) adalah 0,05272 % % </v>
+      </c>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -2110,14 +2350,18 @@
         <f t="shared" si="1"/>
         <v>650</v>
       </c>
-      <c r="G25" s="15"/>
+      <c r="G25" s="29"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="Q25" s="10"/>
+      <c r="L25" s="39" t="str">
+        <f>"dan sisanya yaitu sebesar "&amp;K17&amp;" % dipengaruhi oleh variabel selain "&amp;B1&amp;""</f>
+        <v>dan sisanya yaitu sebesar 99,94728 % dipengaruhi oleh variabel selain X (Kecepatan Angin)</v>
+      </c>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="41"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -2141,7 +2385,7 @@
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G26" s="15"/>
+      <c r="G26" s="29"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
@@ -2173,12 +2417,12 @@
         <f t="shared" si="1"/>
         <v>728</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
       <c r="O27" s="12"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
@@ -2205,8 +2449,8 @@
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="J28" s="31"/>
+      <c r="G28" s="29"/>
+      <c r="J28" s="28"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
@@ -2237,7 +2481,7 @@
         <f t="shared" si="1"/>
         <v>624</v>
       </c>
-      <c r="G29" s="15"/>
+      <c r="G29" s="29"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
@@ -2267,7 +2511,7 @@
         <f t="shared" si="1"/>
         <v>528</v>
       </c>
-      <c r="G30" s="15"/>
+      <c r="G30" s="29"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
@@ -2297,7 +2541,7 @@
         <f t="shared" si="1"/>
         <v>702</v>
       </c>
-      <c r="G31" s="15"/>
+      <c r="G31" s="29"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -2321,7 +2565,7 @@
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="G32" s="15"/>
+      <c r="G32" s="29"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -2345,7 +2589,7 @@
         <f t="shared" si="1"/>
         <v>624</v>
       </c>
-      <c r="G33" s="15"/>
+      <c r="G33" s="29"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -2369,7 +2613,7 @@
         <f t="shared" si="1"/>
         <v>528</v>
       </c>
-      <c r="G34" s="15"/>
+      <c r="G34" s="29"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -2393,7 +2637,7 @@
         <f>B35*C35</f>
         <v>702</v>
       </c>
-      <c r="G35" s="15"/>
+      <c r="G35" s="29"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -2417,7 +2661,7 @@
         <f t="shared" ref="F36:F41" si="2">B36*C36</f>
         <v>546</v>
       </c>
-      <c r="G36" s="15"/>
+      <c r="G36" s="29"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -2441,7 +2685,7 @@
         <f t="shared" si="2"/>
         <v>504</v>
       </c>
-      <c r="G37" s="15"/>
+      <c r="G37" s="29"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -2465,7 +2709,7 @@
         <f t="shared" si="2"/>
         <v>594</v>
       </c>
-      <c r="G38" s="15"/>
+      <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -2489,7 +2733,7 @@
         <f t="shared" si="2"/>
         <v>483</v>
       </c>
-      <c r="G39" s="15"/>
+      <c r="G39" s="29"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -2513,7 +2757,7 @@
         <f t="shared" si="2"/>
         <v>462</v>
       </c>
-      <c r="G40" s="15"/>
+      <c r="G40" s="29"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -2537,48 +2781,48 @@
         <f t="shared" si="2"/>
         <v>598</v>
       </c>
-      <c r="G41" s="15"/>
+      <c r="G41" s="29"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="19">
         <f>SUM(B2:B41)</f>
         <v>924</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="19">
         <f>SUM(C2:C41)</f>
         <v>966</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="19">
         <f>SUM(D2:D41)</f>
         <v>21628</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="19">
         <f>SUM(E2:E41)</f>
         <v>23524</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="19">
         <f>SUM(F2:F41)</f>
         <v>22320</v>
       </c>
-      <c r="G42" s="15"/>
+      <c r="G42" s="29"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="25">
+      <c r="B43" s="21">
         <f>B42^2</f>
         <v>853776</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44" s="18">
         <f>C42^2</f>
         <v>933156</v>
       </c>
@@ -2701,7 +2945,11 @@
       <c r="B83" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="L25:Q25"/>
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J5:J6"/>
